--- a/data/input_mapping/Mappingliste_Verträge.xlsx
+++ b/data/input_mapping/Mappingliste_Verträge.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="62">
   <si>
     <t>Kategorie</t>
   </si>
@@ -1434,7 +1434,9 @@
       <c r="W22" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
-      <c r="A23" s="5"/>
+      <c r="A23" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="10"/>
@@ -1459,7 +1461,9 @@
       <c r="W23" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
-      <c r="A24" s="5"/>
+      <c r="A24" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="B24" s="5"/>
       <c r="C24" s="3"/>
       <c r="D24" s="10"/>
@@ -1484,7 +1488,9 @@
       <c r="W24" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
-      <c r="A25" s="5"/>
+      <c r="A25" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="B25" s="5"/>
       <c r="C25" s="3"/>
       <c r="D25" s="10"/>
@@ -1509,7 +1515,9 @@
       <c r="W25" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="6"/>
+      <c r="A26" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>

--- a/data/input_mapping/Mappingliste_Verträge.xlsx
+++ b/data/input_mapping/Mappingliste_Verträge.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="83">
   <si>
     <t>Kategorie</t>
   </si>
@@ -201,6 +201,69 @@
   <si>
     <t>OSBA_Standard-Vertragsbedingungen_SaaS_Referenzrahmen.txt</t>
   </si>
+  <si>
+    <t>Zusatz Verträge</t>
+  </si>
+  <si>
+    <t>MAIT</t>
+  </si>
+  <si>
+    <t>MAIT Germany GmbH - Allgemeine Geschäftsbedingungen für Comarch Service-Produkte (B2B).txt</t>
+  </si>
+  <si>
+    <t>emediagroup</t>
+  </si>
+  <si>
+    <t>emediagroup GmbH - Nutzungsvertrag über die SOFTWARE „emediaone“ als Software-as-a-Service (SaaS).txt</t>
+  </si>
+  <si>
+    <t>DELTA BARTH</t>
+  </si>
+  <si>
+    <t>DELTA BARTH Systemhaus GmbH - Allgemeine Vertragsbedingungen für den Verkauf von Standardsoftware.txt</t>
+  </si>
+  <si>
+    <t>CSB-System AG</t>
+  </si>
+  <si>
+    <t>CSB-System AG - Geschäftsbedingungen der CSB-System SE für Überlassung von Software sowie Erbringen von Dienst- und Wartungsleistungen.txt</t>
+  </si>
+  <si>
+    <t>CSB-System AG - Geschäftsbedingungen der CSB-System SE für Rechenzentrumsleistungen (Cloud Services).txt</t>
+  </si>
+  <si>
+    <t>Asseco Solutions AG</t>
+  </si>
+  <si>
+    <t>Asseco Solutions AG - Allgemeine Bedingungen.txt</t>
+  </si>
+  <si>
+    <t>aptus IT GmbH</t>
+  </si>
+  <si>
+    <t>aptus IT GmbH - Allgemeine Vertragsbedingungen.txt</t>
+  </si>
+  <si>
+    <t>Abona GmbH</t>
+  </si>
+  <si>
+    <t>ABONA Deutschland GmbH - ALLGEMEINE GESCHÄFTSBEDINGUNGEN (AGB) FÜR DIE NUTZUNG DER SOFTWARE ABONA ERP UND DEN IT-SERVICE.txt</t>
+  </si>
+  <si>
+    <t>A+W Software</t>
+  </si>
+  <si>
+    <t>A+W Software GmbH - Allgemeine Verkaufs‐ und Lieferbedingungen.txt</t>
+  </si>
+  <si>
+    <t>4SELLERS</t>
+  </si>
+  <si>
+    <t>4SELLERS GmbH - Bedingungen für die Bereitstellung von Cloud Service – IaaS.txt</t>
+  </si>
+  <si>
+    <t/>
+  </si>
 </sst>
 </file>
 
@@ -303,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -333,6 +396,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -646,29 +712,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="44.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="24.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="58.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="104.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="9.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="11" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="11" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="11" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="11" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="11" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="11" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="11" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="11" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="11" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="11" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="11" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="11" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="11" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="11" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="11" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="44.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="24.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="58.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="104.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="9.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="12" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="12" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="12" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="12" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="12" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="12" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="12" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="12" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="12" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="12" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="12" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="12" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="12" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="12" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="12" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="12" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="12" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="12" width="11.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -1435,12 +1501,18 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
-      <c r="B23" s="5"/>
+      <c r="B23" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="C23" s="5"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="5"/>
+      <c r="D23" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -1462,12 +1534,18 @@
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
-      <c r="B24" s="5"/>
+      <c r="B24" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="5"/>
+      <c r="D24" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -1489,12 +1567,18 @@
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
-      <c r="B25" s="5"/>
+      <c r="B25" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="5"/>
+      <c r="D25" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -1514,14 +1598,20 @@
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
-      <c r="B26" s="6"/>
+      <c r="B26" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="D26" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -1542,11 +1632,19 @@
       <c r="W26" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="D27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -1567,11 +1665,19 @@
       <c r="W27" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
+      <c r="A28" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -1592,11 +1698,19 @@
       <c r="W28" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
+      <c r="A29" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -1617,11 +1731,19 @@
       <c r="W29" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
+      <c r="A30" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+      <c r="D30" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -1642,11 +1764,19 @@
       <c r="W30" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+      <c r="D31" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -1667,11 +1797,19 @@
       <c r="W31" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
+      <c r="A32" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+      <c r="D32" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -1692,11 +1830,15 @@
       <c r="W32" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="6"/>
+      <c r="A33" s="11" t="s">
+        <v>82</v>
+      </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
+      <c r="E33" s="11" t="s">
+        <v>82</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -1721,7 +1863,9 @@
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
+      <c r="E34" s="11" t="s">
+        <v>82</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
